--- a/REPORTE-USUARIO/Reporte por Usuario.xlsx
+++ b/REPORTE-USUARIO/Reporte por Usuario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bgw\REPORTE-USUARIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byg-d\modMoodle\REPORTE-USUARIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7AE08C6-92BE-4865-8EDB-3524B240931C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7A3CF0-9C31-49F2-9918-E26236952990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="635" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,8 +25,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="6" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,8 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -556,7 +554,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -619,6 +617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Campo de la tabla dinámica" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -751,7 +750,7 @@
             <c:strRef>
               <c:f>DistribucionNormal!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>John2 Doe2</c:v>
                 </c:pt>
@@ -769,6 +768,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>John9 Doe9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total Resultado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -796,6 +798,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.39898066201019655</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,7 +838,7 @@
             <c:strRef>
               <c:f>DistribucionNormal!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>John2 Doe2</c:v>
                 </c:pt>
@@ -851,6 +856,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>John9 Doe9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total Resultado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -878,6 +886,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.51197344446571025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,7 +926,7 @@
             <c:strRef>
               <c:f>DistribucionNormal!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>John2 Doe2</c:v>
                 </c:pt>
@@ -933,6 +944,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>John9 Doe9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total Resultado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -960,6 +974,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.90761258527264532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -997,7 +1014,7 @@
             <c:strRef>
               <c:f>DistribucionNormal!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>John2 Doe2</c:v>
                 </c:pt>
@@ -1015,6 +1032,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>John9 Doe9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total Resultado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1042,6 +1062,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.44430397051268455</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,7 +1102,7 @@
             <c:strRef>
               <c:f>DistribucionNormal!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>John2 Doe2</c:v>
                 </c:pt>
@@ -1097,6 +1120,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>John9 Doe9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total Resultado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1124,6 +1150,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.86337081768056811</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1161,7 +1190,7 @@
             <c:strRef>
               <c:f>DistribucionNormal!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>John2 Doe2</c:v>
                 </c:pt>
@@ -1179,6 +1208,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>John9 Doe9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total Resultado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1206,6 +1238,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.59370192472847116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1243,7 +1278,7 @@
             <c:strRef>
               <c:f>DistribucionNormal!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>John2 Doe2</c:v>
                 </c:pt>
@@ -1261,6 +1296,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>John9 Doe9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total Resultado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1288,6 +1326,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.35754289522346927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1351,7 +1392,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>John2 Doe2</c:v>
                       </c:pt>
@@ -1369,6 +1410,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>John9 Doe9</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Total Resultado</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1402,6 +1446,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>0.83549000958006847</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1905,6 +1952,62 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -3469,51 +3572,40 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedDate="0" createdVersion="3" recordCount="42" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BYG DEV" refreshedDate="45499.515027777779" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="43" xr:uid="{D87C4029-43FB-45C5-8986-F705888CEB42}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:I43" sheet="ReporteUsuario"/>
+    <worksheetSource ref="A1:I10000" sheet="ReporteUsuario"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Nombre Completo" numFmtId="0">
-      <sharedItems count="6">
-        <s v="John2 Doe2"/>
-        <s v="John2 Doe4"/>
-        <s v="John3 Doe3"/>
-        <s v="John9 Doe6"/>
-        <s v="John9 Doe7"/>
-        <s v="John9 Doe9"/>
-      </sharedItems>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Institucion" numFmtId="0">
-      <sharedItems count="1">
-        <s v="UVM"/>
-      </sharedItems>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Maestria" numFmtId="0">
-      <sharedItems count="2">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Hoteleria"/>
         <s v="Finanzas"/>
-        <s v="Hoteleria"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Campus" numFmtId="0">
-      <sharedItems count="3">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Queretaro"/>
+        <s v="Puebla"/>
         <s v="CD MX"/>
-        <s v="Puebla"/>
-        <s v="Queretaro"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Pais" numFmtId="0">
-      <sharedItems count="1">
-        <s v="MX"/>
-      </sharedItems>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Examen" numFmtId="0">
-      <sharedItems count="1">
-        <s v="Examen24MFP-test"/>
-      </sharedItems>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Modulo" numFmtId="0">
-      <sharedItems count="7">
+      <sharedItems containsBlank="1" count="8">
         <s v="I.Matemáticas Financieras"/>
         <s v="II Fundamentos de Estadística"/>
         <s v="III Análisis e Interpretación de Estados Financieros"/>
@@ -3521,44 +3613,14 @@
         <s v="V Administración de Capital de Trabajo"/>
         <s v="VI Planeación Financiera"/>
         <s v="VII Presupuesto y Costo de Capital"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="TotalRespuestaCorrectas" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4" count="5">
-        <n v="0"/>
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-      </sharedItems>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
     </cacheField>
     <cacheField name="Calificacion" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="5.9" count="24">
-        <n v="0"/>
-        <n v="1.1000000000000001"/>
-        <n v="1.1100000000000001"/>
-        <n v="1.22"/>
-        <n v="1.3"/>
-        <n v="1.4"/>
-        <n v="1.43"/>
-        <n v="1.67"/>
-        <n v="1.9"/>
-        <n v="2.2000000000000002"/>
-        <n v="2.2200000000000002"/>
-        <n v="2.2999999999999998"/>
-        <n v="2.4"/>
-        <n v="2.5"/>
-        <n v="2.8"/>
-        <n v="2.86"/>
-        <n v="3.1"/>
-        <n v="3.33"/>
-        <n v="3.6"/>
-        <n v="4.22"/>
-        <n v="4.29"/>
-        <n v="4.8"/>
-        <n v="5.6"/>
-        <n v="5.9"/>
-      </sharedItems>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="5.9"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -4037,474 +4099,485 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="42">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="43">
+  <r>
+    <s v="John2 Doe2"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="1.22"/>
+  </r>
+  <r>
+    <s v="John2 Doe2"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="3.33"/>
+  </r>
+  <r>
+    <s v="John2 Doe2"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="3"/>
+    <n v="4.29"/>
+  </r>
+  <r>
+    <s v="John2 Doe2"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="2.86"/>
+  </r>
+  <r>
+    <s v="John2 Doe2"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
     <x v="4"/>
+    <n v="3"/>
+    <n v="4.29"/>
+  </r>
+  <r>
+    <s v="John2 Doe2"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="5"/>
+    <n v="3"/>
+    <n v="3.33"/>
+  </r>
+  <r>
+    <s v="John2 Doe2"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="John3 Doe3"/>
+    <s v="UVM"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2.2200000000000002"/>
+  </r>
+  <r>
+    <s v="John3 Doe3"/>
+    <s v="UVM"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1.67"/>
+  </r>
+  <r>
+    <s v="John3 Doe3"/>
+    <s v="UVM"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="John3 Doe3"/>
+    <s v="UVM"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
     <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <n v="1"/>
+    <n v="2.2999999999999998"/>
+  </r>
+  <r>
+    <s v="John3 Doe3"/>
+    <s v="UVM"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1.43"/>
+  </r>
+  <r>
+    <s v="John3 Doe3"/>
+    <s v="UVM"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="1.1100000000000001"/>
+  </r>
+  <r>
+    <s v="John3 Doe3"/>
+    <s v="UVM"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="2.5"/>
+  </r>
+  <r>
+    <s v="John9 Doe9"/>
+    <s v="UVM"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2.2000000000000002"/>
+  </r>
+  <r>
+    <s v="John9 Doe9"/>
+    <s v="UVM"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="2.2200000000000002"/>
+  </r>
+  <r>
+    <s v="John9 Doe9"/>
+    <s v="UVM"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="5.9"/>
+  </r>
+  <r>
+    <s v="John9 Doe9"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="3.6"/>
+  </r>
+  <r>
+    <s v="John9 Doe9"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="4.8"/>
+  </r>
+  <r>
+    <s v="John9 Doe9"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="5"/>
+    <n v="2"/>
+    <n v="2.4"/>
+  </r>
+  <r>
+    <s v="John9 Doe9"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="1.1000000000000001"/>
+  </r>
+  <r>
+    <s v="John9 Doe7"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="4.22"/>
+  </r>
+  <r>
+    <s v="John9 Doe7"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="1.3"/>
+  </r>
+  <r>
+    <s v="John9 Doe7"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="1.9"/>
+  </r>
+  <r>
+    <s v="John9 Doe7"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="5.6"/>
+  </r>
+  <r>
+    <s v="John9 Doe7"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="2.8"/>
+  </r>
+  <r>
+    <s v="John9 Doe7"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="5"/>
+    <n v="2"/>
+    <n v="1.4"/>
+  </r>
+  <r>
+    <s v="John9 Doe7"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="3.1"/>
+  </r>
+  <r>
+    <s v="John9 Doe6"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="4.22"/>
+  </r>
+  <r>
+    <s v="John9 Doe6"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="1.3"/>
+  </r>
+  <r>
+    <s v="John9 Doe6"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="1.9"/>
+  </r>
+  <r>
+    <s v="John9 Doe6"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="5.6"/>
+  </r>
+  <r>
+    <s v="John9 Doe6"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="2.8"/>
+  </r>
+  <r>
+    <s v="John9 Doe6"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="5"/>
+    <n v="2"/>
+    <n v="1.4"/>
+  </r>
+  <r>
+    <s v="John9 Doe6"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="3.1"/>
+  </r>
+  <r>
+    <s v="John2 Doe4"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="1.22"/>
+  </r>
+  <r>
+    <s v="John2 Doe4"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="3.33"/>
+  </r>
+  <r>
+    <s v="John2 Doe4"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="4.29"/>
+  </r>
+  <r>
+    <s v="John2 Doe4"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="2.86"/>
+  </r>
+  <r>
+    <s v="John2 Doe4"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="4.29"/>
+  </r>
+  <r>
+    <s v="John2 Doe4"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="5"/>
+    <n v="3"/>
+    <n v="3.33"/>
+  </r>
+  <r>
+    <s v="John2 Doe4"/>
+    <s v="UVM"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MX"/>
+    <s v="Examen24MFP-test"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="2"/>
     <x v="3"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
+    <m/>
+    <m/>
     <x v="7"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="23"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="DataPilot1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" showDrill="0" itemPrintTitles="1" indent="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="DataPilot1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" showDrill="0" itemPrintTitles="1" indent="0" compact="0" compactData="0">
   <location ref="A6:I14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -4586,29 +4659,31 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000001000000}" name="DataPilot2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="8" showDrill="0" itemPrintTitles="1" indent="0" compact="0" compactData="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D612C1B3-0EE0-45AB-B8EE-99D5EB5C83C2}" name="DataPilot2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="7" showDrill="0" itemPrintTitles="1" indent="0" compact="0" compactData="0" chartFormat="5">
   <location ref="A1:J6" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="9">
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="3">
+      <items count="4">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="3">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="3"/>
       </items>
     </pivotField>
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="7">
+      <items count="8">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -4616,6 +4691,7 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
       </items>
     </pivotField>
     <pivotField compact="0" showAll="0"/>
@@ -4674,7 +4750,7 @@
   <dataFields count="1">
     <dataField name="Promedio - Calificacion" fld="8" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="28">
+  <chartFormats count="29">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -5011,6 +5087,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="4" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -6410,7 +6498,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7014,7 +7102,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+      <selection activeCell="A7" sqref="A7:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7286,14 +7374,42 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="A8" t="str">
+        <f>PromedioReporteUsuario!A14</f>
+        <v>Total Resultado</v>
+      </c>
+      <c r="B8" s="23" cm="1">
+        <f t="array" aca="1" ref="B8" ca="1">NORMDIST(PromedioReporteUsuario!B14,INDIRECT("PromedioReporteUsuario!B"&amp;pivote!$B$3),desviacionEstandar!$B$6, TRUE())</f>
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="23" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">NORMDIST(PromedioReporteUsuario!C14,INDIRECT("PromedioReporteUsuario!C"&amp;pivote!$B$3),desviacionEstandar!$C$6, TRUE())</f>
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="23" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">NORMDIST(PromedioReporteUsuario!D14,INDIRECT("PromedioReporteUsuario!D"&amp;pivote!$B$3),desviacionEstandar!$D$6, TRUE())</f>
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="23" cm="1">
+        <f t="array" aca="1" ref="E8" ca="1">NORMDIST(PromedioReporteUsuario!E14,INDIRECT("PromedioReporteUsuario!E"&amp;pivote!$B$3),desviacionEstandar!$E$6, TRUE())</f>
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="23" cm="1">
+        <f t="array" aca="1" ref="F8" ca="1">NORMDIST(PromedioReporteUsuario!F14,INDIRECT("PromedioReporteUsuario!F"&amp;pivote!$B$3),desviacionEstandar!$F$6, TRUE())</f>
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="23" cm="1">
+        <f t="array" aca="1" ref="G8" ca="1">NORMDIST(PromedioReporteUsuario!G14,INDIRECT("PromedioReporteUsuario!G"&amp;pivote!$B$3),desviacionEstandar!$G$6, TRUE())</f>
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="23" cm="1">
+        <f t="array" aca="1" ref="H8" ca="1">NORMDIST(PromedioReporteUsuario!H14,INDIRECT("PromedioReporteUsuario!H"&amp;pivote!$B$3),desviacionEstandar!$H$6, TRUE())</f>
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="23" cm="1">
+        <f t="array" aca="1" ref="I8" ca="1">NORMDIST(PromedioReporteUsuario!I14,INDIRECT("PromedioReporteUsuario!I"&amp;pivote!$B$3),desviacionEstandar!$I$6, TRUE())</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
@@ -7392,7 +7508,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7444,28 +7560,28 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="40">
         <v>3.5466666666666669</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="40">
         <v>1.6066666666666667</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="40">
         <v>3.2333333333333338</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="40">
         <v>4.9333333333333327</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="40">
         <v>3.4666666666666663</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="40">
         <v>1.7333333333333332</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="40">
         <v>2.4333333333333336</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="40">
         <v>2.9933333333333332</v>
       </c>
     </row>
@@ -7476,28 +7592,28 @@
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="40">
         <v>2.2200000000000002</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="40">
         <v>1.67</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="40">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="40">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="40">
         <v>1.43</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="40">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="40">
         <v>2.5</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="40">
         <v>1.6042857142857141</v>
       </c>
     </row>
@@ -7508,28 +7624,28 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="40">
         <v>1.22</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="40">
         <v>3.33</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="40">
         <v>4.29</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="40">
         <v>2.86</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="40">
         <v>4.29</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="40">
         <v>3.33</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="40">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="40">
         <v>2.7599999999999993</v>
       </c>
     </row>
@@ -7537,28 +7653,28 @@
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="40">
         <v>2.5500000000000003</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="40">
         <v>2.1916666666666669</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="40">
         <v>3.0466666666666669</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="40">
         <v>3.8033333333333328</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="40">
         <v>3.401666666666666</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="40">
         <v>2.1616666666666666</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="40">
         <v>1.6333333333333335</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="40">
         <v>2.684047619047619</v>
       </c>
     </row>
